--- a/data/pca/factorExposure/factorExposure_2008-12-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-18.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0195177706425676</v>
+        <v>-0.01798728568041754</v>
       </c>
       <c r="C2">
-        <v>0.01173565915088491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01338098475119002</v>
+      </c>
+      <c r="D2">
+        <v>-0.01843341466951345</v>
+      </c>
+      <c r="E2">
+        <v>-0.01627995030024832</v>
+      </c>
+      <c r="F2">
+        <v>-0.01417996083913194</v>
+      </c>
+      <c r="G2">
+        <v>0.007503236117180118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08019251307079246</v>
+        <v>-0.08340332058341451</v>
       </c>
       <c r="C4">
-        <v>0.08517435124726945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08783954431821092</v>
+      </c>
+      <c r="D4">
+        <v>0.05164952374444407</v>
+      </c>
+      <c r="E4">
+        <v>-0.03708201227292447</v>
+      </c>
+      <c r="F4">
+        <v>-0.009253706816134093</v>
+      </c>
+      <c r="G4">
+        <v>0.03838812154193018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.004912931616705137</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.001245203751693374</v>
+      </c>
+      <c r="D5">
+        <v>-0.0003333995085317497</v>
+      </c>
+      <c r="E5">
+        <v>0.00480780476257239</v>
+      </c>
+      <c r="F5">
+        <v>0.004986160357325221</v>
+      </c>
+      <c r="G5">
+        <v>-0.003159394073633436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1689545896269929</v>
+        <v>-0.1705930933088939</v>
       </c>
       <c r="C6">
-        <v>-0.01753220766180752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.008472183057565265</v>
+      </c>
+      <c r="D6">
+        <v>0.06432172771332156</v>
+      </c>
+      <c r="E6">
+        <v>0.05461536975564611</v>
+      </c>
+      <c r="F6">
+        <v>0.04411616557436424</v>
+      </c>
+      <c r="G6">
+        <v>0.04778129915480934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05123579744097046</v>
+        <v>-0.0535706278644248</v>
       </c>
       <c r="C7">
-        <v>0.06049541080930209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0623711566835171</v>
+      </c>
+      <c r="D7">
+        <v>0.05527189730198503</v>
+      </c>
+      <c r="E7">
+        <v>-0.06774483201926382</v>
+      </c>
+      <c r="F7">
+        <v>-0.06032529540088265</v>
+      </c>
+      <c r="G7">
+        <v>0.03819545446177353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04603137923331067</v>
+        <v>-0.04503915181154084</v>
       </c>
       <c r="C8">
-        <v>0.05584017335220375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05416654270078988</v>
+      </c>
+      <c r="D8">
+        <v>-0.0171262648018644</v>
+      </c>
+      <c r="E8">
+        <v>-0.02727102747354128</v>
+      </c>
+      <c r="F8">
+        <v>-0.0154680192854947</v>
+      </c>
+      <c r="G8">
+        <v>-0.01384648873028174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0573335152073409</v>
+        <v>-0.06227931587757832</v>
       </c>
       <c r="C9">
-        <v>0.09357712862000922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09382976570052566</v>
+      </c>
+      <c r="D9">
+        <v>0.08672585134178991</v>
+      </c>
+      <c r="E9">
+        <v>-0.05185256021161762</v>
+      </c>
+      <c r="F9">
+        <v>0.007602238760393665</v>
+      </c>
+      <c r="G9">
+        <v>0.01890472477615088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1185557527234479</v>
+        <v>-0.1036124208106339</v>
       </c>
       <c r="C10">
-        <v>-0.1492175819364633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1348018908382262</v>
+      </c>
+      <c r="D10">
+        <v>-0.0843115762696417</v>
+      </c>
+      <c r="E10">
+        <v>-0.05634868054234403</v>
+      </c>
+      <c r="F10">
+        <v>-0.01225730169852347</v>
+      </c>
+      <c r="G10">
+        <v>-0.04973865054529333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07835917119244941</v>
+        <v>-0.07560427412270611</v>
       </c>
       <c r="C11">
-        <v>0.1380619238318483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1370395524917701</v>
+      </c>
+      <c r="D11">
+        <v>0.04851144303691532</v>
+      </c>
+      <c r="E11">
+        <v>-0.06451016555517303</v>
+      </c>
+      <c r="F11">
+        <v>0.008028712420719042</v>
+      </c>
+      <c r="G11">
+        <v>0.001099924135381497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.07912436453574639</v>
+        <v>-0.07514203764178895</v>
       </c>
       <c r="C12">
-        <v>0.1658536956155286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.16212827707358</v>
+      </c>
+      <c r="D12">
+        <v>0.04693766679108605</v>
+      </c>
+      <c r="E12">
+        <v>-0.06636143518031984</v>
+      </c>
+      <c r="F12">
+        <v>-0.02558608453738099</v>
+      </c>
+      <c r="G12">
+        <v>-0.005551314142014966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.03820347964688752</v>
+        <v>-0.04060847634276642</v>
       </c>
       <c r="C13">
-        <v>0.07311665270002193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07631730003147708</v>
+      </c>
+      <c r="D13">
+        <v>0.03262050068561076</v>
+      </c>
+      <c r="E13">
+        <v>-0.07470761912692199</v>
+      </c>
+      <c r="F13">
+        <v>-0.03730904705587641</v>
+      </c>
+      <c r="G13">
+        <v>0.003570335833216122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02072945937695905</v>
+        <v>-0.023186615588676</v>
       </c>
       <c r="C14">
-        <v>0.05026068207188185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.05250481090684572</v>
+      </c>
+      <c r="D14">
+        <v>0.0436486794728989</v>
+      </c>
+      <c r="E14">
+        <v>-0.07028190931472077</v>
+      </c>
+      <c r="F14">
+        <v>0.006826954065561401</v>
+      </c>
+      <c r="G14">
+        <v>-0.01043766147456161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.0330343683894291</v>
+        <v>-0.03292901155794838</v>
       </c>
       <c r="C15">
-        <v>0.06614088297500195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06368257954255448</v>
+      </c>
+      <c r="D15">
+        <v>0.04614250391235384</v>
+      </c>
+      <c r="E15">
+        <v>-0.01613386238845918</v>
+      </c>
+      <c r="F15">
+        <v>-0.02809560102733456</v>
+      </c>
+      <c r="G15">
+        <v>-0.005038480120556087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05511197309923268</v>
+        <v>-0.05378304409576158</v>
       </c>
       <c r="C16">
-        <v>0.1598606696317534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1589129980140268</v>
+      </c>
+      <c r="D16">
+        <v>0.04468876928106987</v>
+      </c>
+      <c r="E16">
+        <v>-0.05120150088730301</v>
+      </c>
+      <c r="F16">
+        <v>0.02101018961214913</v>
+      </c>
+      <c r="G16">
+        <v>-0.0008970427567304051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.008170857480199233</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.00454277713939756</v>
+      </c>
+      <c r="D17">
+        <v>-0.003475843349730362</v>
+      </c>
+      <c r="E17">
+        <v>0.01008109230594272</v>
+      </c>
+      <c r="F17">
+        <v>-0.006736387086795453</v>
+      </c>
+      <c r="G17">
+        <v>-0.02049203560342624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04481160369943609</v>
+        <v>-0.05520809482029786</v>
       </c>
       <c r="C18">
-        <v>0.05540539320537396</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.0485502309307465</v>
+      </c>
+      <c r="D18">
+        <v>-8.093732082978033e-05</v>
+      </c>
+      <c r="E18">
+        <v>0.06123710211890055</v>
+      </c>
+      <c r="F18">
+        <v>0.02222383994767916</v>
+      </c>
+      <c r="G18">
+        <v>0.01072850451213567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05654548633093673</v>
+        <v>-0.0557823011263363</v>
       </c>
       <c r="C20">
-        <v>0.1092647983463666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1060912170616019</v>
+      </c>
+      <c r="D20">
+        <v>0.06275934808708974</v>
+      </c>
+      <c r="E20">
+        <v>-0.0533780707868502</v>
+      </c>
+      <c r="F20">
+        <v>-0.01439752633372917</v>
+      </c>
+      <c r="G20">
+        <v>-0.01233213769870893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04305323529653995</v>
+        <v>-0.04488345429786723</v>
       </c>
       <c r="C21">
-        <v>0.06894392408864844</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06502318186922312</v>
+      </c>
+      <c r="D21">
+        <v>0.02724087171023196</v>
+      </c>
+      <c r="E21">
+        <v>-0.05306822829217959</v>
+      </c>
+      <c r="F21">
+        <v>-0.005573512606052736</v>
+      </c>
+      <c r="G21">
+        <v>0.03240712209546769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04474530556475573</v>
+        <v>-0.04531211791662416</v>
       </c>
       <c r="C22">
-        <v>0.03763442174683347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03984064105250811</v>
+      </c>
+      <c r="D22">
+        <v>-0.1117136405975338</v>
+      </c>
+      <c r="E22">
+        <v>0.05738454105714632</v>
+      </c>
+      <c r="F22">
+        <v>0.1571155378359402</v>
+      </c>
+      <c r="G22">
+        <v>-0.008492066775321522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04475520527152031</v>
+        <v>-0.04532073363132922</v>
       </c>
       <c r="C23">
-        <v>0.03762754310343578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0398346724403477</v>
+      </c>
+      <c r="D23">
+        <v>-0.1117492711230133</v>
+      </c>
+      <c r="E23">
+        <v>0.05738256325898225</v>
+      </c>
+      <c r="F23">
+        <v>0.1571620143947275</v>
+      </c>
+      <c r="G23">
+        <v>-0.008545601137555795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06450030939348703</v>
+        <v>-0.06309709462040095</v>
       </c>
       <c r="C24">
-        <v>0.1442664729769133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1408646069902579</v>
+      </c>
+      <c r="D24">
+        <v>0.04809218704999128</v>
+      </c>
+      <c r="E24">
+        <v>-0.06115621840107847</v>
+      </c>
+      <c r="F24">
+        <v>-0.0005190941289661975</v>
+      </c>
+      <c r="G24">
+        <v>-0.002187707440887041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0708786970229842</v>
+        <v>-0.06839615505867855</v>
       </c>
       <c r="C25">
-        <v>0.1295334474380442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1271499276884328</v>
+      </c>
+      <c r="D25">
+        <v>0.04981640511430383</v>
+      </c>
+      <c r="E25">
+        <v>-0.0815416098676864</v>
+      </c>
+      <c r="F25">
+        <v>-0.03364282412053412</v>
+      </c>
+      <c r="G25">
+        <v>0.01706769947829283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05698161055174059</v>
+        <v>-0.06092256010447057</v>
       </c>
       <c r="C26">
-        <v>0.0742476507155836</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07821089534429795</v>
+      </c>
+      <c r="D26">
+        <v>0.02184071026471511</v>
+      </c>
+      <c r="E26">
+        <v>-0.07294162129358336</v>
+      </c>
+      <c r="F26">
+        <v>-0.02679874019408892</v>
+      </c>
+      <c r="G26">
+        <v>-0.00656893520585781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1732241551806104</v>
+        <v>-0.1771776452189007</v>
       </c>
       <c r="C28">
-        <v>-0.2243653701900598</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2261132057689866</v>
+      </c>
+      <c r="D28">
+        <v>0.009982573400858947</v>
+      </c>
+      <c r="E28">
+        <v>-0.1504257280247777</v>
+      </c>
+      <c r="F28">
+        <v>-0.04781436623508469</v>
+      </c>
+      <c r="G28">
+        <v>-0.03910661383991719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02535415464386398</v>
+        <v>-0.02712882792406981</v>
       </c>
       <c r="C29">
-        <v>0.0548662840109929</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05464755244942654</v>
+      </c>
+      <c r="D29">
+        <v>0.01141752561044452</v>
+      </c>
+      <c r="E29">
+        <v>-0.07300933666222463</v>
+      </c>
+      <c r="F29">
+        <v>0.00854885977474925</v>
+      </c>
+      <c r="G29">
+        <v>-0.008653998388225018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03024200426970304</v>
+        <v>-0.03355031967415521</v>
       </c>
       <c r="C30">
-        <v>0.07036836697130461</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07516922759021588</v>
+      </c>
+      <c r="D30">
+        <v>0.1269785058903488</v>
+      </c>
+      <c r="E30">
+        <v>-0.06745243210582512</v>
+      </c>
+      <c r="F30">
+        <v>-0.06812767163316125</v>
+      </c>
+      <c r="G30">
+        <v>-0.01071272398957726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05377234978492738</v>
+        <v>-0.0526772606034078</v>
       </c>
       <c r="C31">
-        <v>0.03796194206575244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.04010177808874887</v>
+      </c>
+      <c r="D31">
+        <v>-0.005877835043341812</v>
+      </c>
+      <c r="E31">
+        <v>-0.01769452906703418</v>
+      </c>
+      <c r="F31">
+        <v>0.04709346681314179</v>
+      </c>
+      <c r="G31">
+        <v>0.02585230247729373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04223526018169859</v>
+        <v>-0.04569276464571732</v>
       </c>
       <c r="C32">
-        <v>0.05938978783039618</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05766474436048379</v>
+      </c>
+      <c r="D32">
+        <v>0.0124337433584086</v>
+      </c>
+      <c r="E32">
+        <v>-0.001809973884463661</v>
+      </c>
+      <c r="F32">
+        <v>-0.03654164230607581</v>
+      </c>
+      <c r="G32">
+        <v>-0.01793605028038303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07597706065907636</v>
+        <v>-0.08029971275896898</v>
       </c>
       <c r="C33">
-        <v>0.1178532778734774</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1260003495472094</v>
+      </c>
+      <c r="D33">
+        <v>0.05107119111362243</v>
+      </c>
+      <c r="E33">
+        <v>-0.06079534500531567</v>
+      </c>
+      <c r="F33">
+        <v>0.01800103595140285</v>
+      </c>
+      <c r="G33">
+        <v>-0.02782235715364663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05257588886582638</v>
+        <v>-0.05159440454517876</v>
       </c>
       <c r="C34">
-        <v>0.1330710810772723</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1322093757429259</v>
+      </c>
+      <c r="D34">
+        <v>0.0929716900316773</v>
+      </c>
+      <c r="E34">
+        <v>-0.04809034605088717</v>
+      </c>
+      <c r="F34">
+        <v>0.02266886587987906</v>
+      </c>
+      <c r="G34">
+        <v>-0.01798432267619858</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02746403653808728</v>
+        <v>-0.02967467009473708</v>
       </c>
       <c r="C35">
-        <v>0.02048594389045672</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.02310579674796531</v>
+      </c>
+      <c r="D35">
+        <v>0.01166348330330871</v>
+      </c>
+      <c r="E35">
+        <v>-0.0230871798241124</v>
+      </c>
+      <c r="F35">
+        <v>0.00476213709195394</v>
+      </c>
+      <c r="G35">
+        <v>-0.03041082185171695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02527617606600112</v>
+        <v>-0.02777493273036918</v>
       </c>
       <c r="C36">
-        <v>0.05724221359861547</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.055620655149443</v>
+      </c>
+      <c r="D36">
+        <v>0.07025144658888674</v>
+      </c>
+      <c r="E36">
+        <v>0.00374038548502579</v>
+      </c>
+      <c r="F36">
+        <v>0.04970561422169294</v>
+      </c>
+      <c r="G36">
+        <v>-0.0549948248949843</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0005502930217862789</v>
+        <v>-0.004336784777137737</v>
       </c>
       <c r="C37">
-        <v>-0.0005003288017902012</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.008064717742582717</v>
+      </c>
+      <c r="D37">
+        <v>0.0009338835374413948</v>
+      </c>
+      <c r="E37">
+        <v>-0.01186928269314203</v>
+      </c>
+      <c r="F37">
+        <v>-0.00127772733149186</v>
+      </c>
+      <c r="G37">
+        <v>0.004533249467918375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.07836022920997514</v>
+        <v>-0.07361805704917616</v>
       </c>
       <c r="C39">
-        <v>0.1595394669366456</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1528377521383553</v>
+      </c>
+      <c r="D39">
+        <v>0.004353255569404114</v>
+      </c>
+      <c r="E39">
+        <v>-0.118706103436106</v>
+      </c>
+      <c r="F39">
+        <v>-0.0002791646289791594</v>
+      </c>
+      <c r="G39">
+        <v>0.01839737900124985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0488381383083228</v>
+        <v>-0.05190266563898275</v>
       </c>
       <c r="C40">
-        <v>0.07668561188634745</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08099186453340594</v>
+      </c>
+      <c r="D40">
+        <v>0.01391032744427039</v>
+      </c>
+      <c r="E40">
+        <v>-0.03762645124375127</v>
+      </c>
+      <c r="F40">
+        <v>-0.03401459064735578</v>
+      </c>
+      <c r="G40">
+        <v>-0.05520180503160862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02972798123269357</v>
+        <v>-0.02956587380342082</v>
       </c>
       <c r="C41">
-        <v>0.02407743660734411</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02550202807020629</v>
+      </c>
+      <c r="D41">
+        <v>-0.007563780184400481</v>
+      </c>
+      <c r="E41">
+        <v>0.01219189122081376</v>
+      </c>
+      <c r="F41">
+        <v>-0.00608920644906914</v>
+      </c>
+      <c r="G41">
+        <v>-0.01057888196756744</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04391057555903067</v>
+        <v>-0.04212720397572355</v>
       </c>
       <c r="C43">
-        <v>0.04203115879492261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.0393927819808035</v>
+      </c>
+      <c r="D43">
+        <v>-0.01709160589225217</v>
+      </c>
+      <c r="E43">
+        <v>-0.01861266624687529</v>
+      </c>
+      <c r="F43">
+        <v>0.04264881667488515</v>
+      </c>
+      <c r="G43">
+        <v>-0.005296177804260398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05491909364409821</v>
+        <v>-0.05911021026575401</v>
       </c>
       <c r="C44">
-        <v>0.09226207565716309</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.09488876845879746</v>
+      </c>
+      <c r="D44">
+        <v>0.3191501463531025</v>
+      </c>
+      <c r="E44">
+        <v>-0.07841688214642487</v>
+      </c>
+      <c r="F44">
+        <v>0.04568980044321364</v>
+      </c>
+      <c r="G44">
+        <v>-0.1075535110109001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0006921420858317267</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.001236168462563121</v>
+      </c>
+      <c r="D45">
+        <v>-0.001112209468051488</v>
+      </c>
+      <c r="E45">
+        <v>-0.001480240109837887</v>
+      </c>
+      <c r="F45">
+        <v>-0.0002238899911536567</v>
+      </c>
+      <c r="G45">
+        <v>0.007593911794961162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02852001822073343</v>
+        <v>-0.02969987060938076</v>
       </c>
       <c r="C46">
-        <v>0.04518683015537222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04259605660107815</v>
+      </c>
+      <c r="D46">
+        <v>-0.007688275541587075</v>
+      </c>
+      <c r="E46">
+        <v>-0.06175577226745192</v>
+      </c>
+      <c r="F46">
+        <v>0.0281911835969179</v>
+      </c>
+      <c r="G46">
+        <v>0.009927163004571115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05622106334941044</v>
+        <v>-0.0536689862714492</v>
       </c>
       <c r="C47">
-        <v>0.04321572745087687</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.04180456209138655</v>
+      </c>
+      <c r="D47">
+        <v>-0.04150323935782591</v>
+      </c>
+      <c r="E47">
+        <v>0.01937598104531199</v>
+      </c>
+      <c r="F47">
+        <v>0.07546398064315482</v>
+      </c>
+      <c r="G47">
+        <v>0.02698989794166307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04767104760518448</v>
+        <v>-0.04952554858086521</v>
       </c>
       <c r="C48">
-        <v>0.07107901853759167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.07082268421981058</v>
+      </c>
+      <c r="D48">
+        <v>0.0370746326270924</v>
+      </c>
+      <c r="E48">
+        <v>-0.0577247682115108</v>
+      </c>
+      <c r="F48">
+        <v>-0.01519198565476683</v>
+      </c>
+      <c r="G48">
+        <v>0.04478992149831465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1835221651622743</v>
+        <v>-0.1909220758261354</v>
       </c>
       <c r="C49">
-        <v>-0.02596909959539173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02299442972249791</v>
+      </c>
+      <c r="D49">
+        <v>0.02394956501727284</v>
+      </c>
+      <c r="E49">
+        <v>0.01097465516732301</v>
+      </c>
+      <c r="F49">
+        <v>-0.1174937254533197</v>
+      </c>
+      <c r="G49">
+        <v>-0.03075130810434764</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0532134414897104</v>
+        <v>-0.05272756403909103</v>
       </c>
       <c r="C50">
-        <v>0.03708091073385435</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03995555747579083</v>
+      </c>
+      <c r="D50">
+        <v>0.00985378208149925</v>
+      </c>
+      <c r="E50">
+        <v>-0.009143429165531286</v>
+      </c>
+      <c r="F50">
+        <v>0.03651543756822787</v>
+      </c>
+      <c r="G50">
+        <v>0.03412716208773754</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.140928841822364</v>
+        <v>-0.1358824822300331</v>
       </c>
       <c r="C52">
-        <v>0.03588794533945487</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03429982006218199</v>
+      </c>
+      <c r="D52">
+        <v>0.02836384724165677</v>
+      </c>
+      <c r="E52">
+        <v>0.0868597823813749</v>
+      </c>
+      <c r="F52">
+        <v>0.1044523885391098</v>
+      </c>
+      <c r="G52">
+        <v>0.06613482404886248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1672084724638652</v>
+        <v>-0.1609880423330227</v>
       </c>
       <c r="C53">
-        <v>-0.01091970613737737</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.009346895126167015</v>
+      </c>
+      <c r="D53">
+        <v>0.04432994319641776</v>
+      </c>
+      <c r="E53">
+        <v>0.1250617944797591</v>
+      </c>
+      <c r="F53">
+        <v>0.1330777267722194</v>
+      </c>
+      <c r="G53">
+        <v>0.108570074235566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01151426953649562</v>
+        <v>-0.01342337934020622</v>
       </c>
       <c r="C54">
-        <v>0.04155665997176263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04183252840294734</v>
+      </c>
+      <c r="D54">
+        <v>0.01553087542211088</v>
+      </c>
+      <c r="E54">
+        <v>-0.03919817141440566</v>
+      </c>
+      <c r="F54">
+        <v>1.544890780238983e-05</v>
+      </c>
+      <c r="G54">
+        <v>0.000826795266919371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1218388738854629</v>
+        <v>-0.1200683228150425</v>
       </c>
       <c r="C55">
-        <v>0.01802500938610424</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01899059256884302</v>
+      </c>
+      <c r="D55">
+        <v>0.03370016332998643</v>
+      </c>
+      <c r="E55">
+        <v>0.05659759174457519</v>
+      </c>
+      <c r="F55">
+        <v>0.1562090860868426</v>
+      </c>
+      <c r="G55">
+        <v>0.1155654092907162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1802908345320555</v>
+        <v>-0.1753501930989683</v>
       </c>
       <c r="C56">
-        <v>-0.008288058089929148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.009897743179126452</v>
+      </c>
+      <c r="D56">
+        <v>0.003590548437141691</v>
+      </c>
+      <c r="E56">
+        <v>0.1573962908137526</v>
+      </c>
+      <c r="F56">
+        <v>0.1308477858491677</v>
+      </c>
+      <c r="G56">
+        <v>0.134650650540633</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04205444957191485</v>
+        <v>-0.04150445616994457</v>
       </c>
       <c r="C58">
-        <v>0.09725221292738148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1081075724040297</v>
+      </c>
+      <c r="D58">
+        <v>-0.01109980520988503</v>
+      </c>
+      <c r="E58">
+        <v>-0.0414888572677696</v>
+      </c>
+      <c r="F58">
+        <v>0.007422171241047273</v>
+      </c>
+      <c r="G58">
+        <v>-0.001046909784048692</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.184538021517222</v>
+        <v>-0.191132398738274</v>
       </c>
       <c r="C59">
-        <v>-0.165122752189781</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1715308621673768</v>
+      </c>
+      <c r="D59">
+        <v>-0.09258402470015296</v>
+      </c>
+      <c r="E59">
+        <v>-0.07367951533464698</v>
+      </c>
+      <c r="F59">
+        <v>-0.03370707920890038</v>
+      </c>
+      <c r="G59">
+        <v>-0.01194880818736463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2069514575818195</v>
+        <v>-0.2056358990540296</v>
       </c>
       <c r="C60">
-        <v>-3.792083000839816e-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.003454849946344346</v>
+      </c>
+      <c r="D60">
+        <v>-0.1031988755463652</v>
+      </c>
+      <c r="E60">
+        <v>0.1450935116852548</v>
+      </c>
+      <c r="F60">
+        <v>-0.0899607942566613</v>
+      </c>
+      <c r="G60">
+        <v>0.05020402418400444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06018007262908604</v>
+        <v>-0.05855712271847658</v>
       </c>
       <c r="C61">
-        <v>0.1351737439706295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1314516090075775</v>
+      </c>
+      <c r="D61">
+        <v>0.01094630497852023</v>
+      </c>
+      <c r="E61">
+        <v>-0.07512784480027423</v>
+      </c>
+      <c r="F61">
+        <v>-0.02962388182166205</v>
+      </c>
+      <c r="G61">
+        <v>-0.001903508315387244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1701441520123531</v>
+        <v>-0.1665537489284538</v>
       </c>
       <c r="C62">
-        <v>-0.004722942501454926</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.004900548078252015</v>
+      </c>
+      <c r="D62">
+        <v>0.005693019015486358</v>
+      </c>
+      <c r="E62">
+        <v>0.1347323357053374</v>
+      </c>
+      <c r="F62">
+        <v>0.127837445650234</v>
+      </c>
+      <c r="G62">
+        <v>0.1109431804120548</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04102178124717727</v>
+        <v>-0.04345131295042107</v>
       </c>
       <c r="C63">
-        <v>0.08004697198420108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08372371621890469</v>
+      </c>
+      <c r="D63">
+        <v>0.02058878687267177</v>
+      </c>
+      <c r="E63">
+        <v>-0.04046717665398743</v>
+      </c>
+      <c r="F63">
+        <v>0.003392063985260587</v>
+      </c>
+      <c r="G63">
+        <v>-0.03408785960405707</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1125432157152291</v>
+        <v>-0.1101348044653438</v>
       </c>
       <c r="C64">
-        <v>0.06485235256768239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06619594452799431</v>
+      </c>
+      <c r="D64">
+        <v>0.0179708485536851</v>
+      </c>
+      <c r="E64">
+        <v>0.05095153137779361</v>
+      </c>
+      <c r="F64">
+        <v>-0.01690514485936472</v>
+      </c>
+      <c r="G64">
+        <v>0.01551411845793787</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1600479502775495</v>
+        <v>-0.1626183347113854</v>
       </c>
       <c r="C65">
-        <v>-0.05621380435040545</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04527285661239485</v>
+      </c>
+      <c r="D65">
+        <v>0.06292579033462775</v>
+      </c>
+      <c r="E65">
+        <v>-0.003037360626473106</v>
+      </c>
+      <c r="F65">
+        <v>0.04479317752201338</v>
+      </c>
+      <c r="G65">
+        <v>0.04137955373048765</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09629124366386112</v>
+        <v>-0.09167762104227878</v>
       </c>
       <c r="C66">
-        <v>0.1328681837151658</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1313442770162108</v>
+      </c>
+      <c r="D66">
+        <v>0.02536530195393277</v>
+      </c>
+      <c r="E66">
+        <v>-0.102535178292659</v>
+      </c>
+      <c r="F66">
+        <v>-0.01036079232596791</v>
+      </c>
+      <c r="G66">
+        <v>-0.01870350014073362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05086867143664884</v>
+        <v>-0.04413492272072226</v>
       </c>
       <c r="C67">
-        <v>0.08420574892433783</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07735349089118375</v>
+      </c>
+      <c r="D67">
+        <v>-0.08113731624036169</v>
+      </c>
+      <c r="E67">
+        <v>0.02869289829110598</v>
+      </c>
+      <c r="F67">
+        <v>0.06466697151677105</v>
+      </c>
+      <c r="G67">
+        <v>-0.0272760511233869</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1466762136660208</v>
+        <v>-0.1468832238243683</v>
       </c>
       <c r="C68">
-        <v>-0.2498914218860531</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2457829172603698</v>
+      </c>
+      <c r="D68">
+        <v>0.02711150894799387</v>
+      </c>
+      <c r="E68">
+        <v>-0.1545085759099033</v>
+      </c>
+      <c r="F68">
+        <v>-0.07403082738613248</v>
+      </c>
+      <c r="G68">
+        <v>0.02838527413190501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03955175014644113</v>
+        <v>-0.03750229276617185</v>
       </c>
       <c r="C69">
-        <v>0.01667696181912062</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01919647115066257</v>
+      </c>
+      <c r="D69">
+        <v>-0.01996234994751017</v>
+      </c>
+      <c r="E69">
+        <v>0.0573739450952608</v>
+      </c>
+      <c r="F69">
+        <v>0.06352798714334698</v>
+      </c>
+      <c r="G69">
+        <v>-0.02638755535737312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07565090617878267</v>
+        <v>-0.07312991351342032</v>
       </c>
       <c r="C70">
-        <v>0.0925207451531129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.09492106390558662</v>
+      </c>
+      <c r="D70">
+        <v>-0.6450526177353885</v>
+      </c>
+      <c r="E70">
+        <v>0.1905964421711246</v>
+      </c>
+      <c r="F70">
+        <v>-0.3404347192365096</v>
+      </c>
+      <c r="G70">
+        <v>0.3188293109953501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1705987009047617</v>
+        <v>-0.1724291446753958</v>
       </c>
       <c r="C71">
-        <v>-0.2534777735963764</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2508664228651323</v>
+      </c>
+      <c r="D71">
+        <v>0.01939950567871192</v>
+      </c>
+      <c r="E71">
+        <v>-0.1583244452491625</v>
+      </c>
+      <c r="F71">
+        <v>-0.08855855813913092</v>
+      </c>
+      <c r="G71">
+        <v>0.02287866733652275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1449912234609307</v>
+        <v>-0.1498654668037462</v>
       </c>
       <c r="C72">
-        <v>0.01002603980828766</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.009026234453508876</v>
+      </c>
+      <c r="D72">
+        <v>0.03225137637504289</v>
+      </c>
+      <c r="E72">
+        <v>0.03987345875876866</v>
+      </c>
+      <c r="F72">
+        <v>0.1155271672160641</v>
+      </c>
+      <c r="G72">
+        <v>0.009626379770984345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1862358132943601</v>
+        <v>-0.1960390358403267</v>
       </c>
       <c r="C73">
-        <v>0.01985464770952218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.02256714125768905</v>
+      </c>
+      <c r="D73">
+        <v>0.004443511255642641</v>
+      </c>
+      <c r="E73">
+        <v>0.1031121754130092</v>
+      </c>
+      <c r="F73">
+        <v>0.02989512391194039</v>
+      </c>
+      <c r="G73">
+        <v>-0.0425240015384557</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08621131761763093</v>
+        <v>-0.08529920743559284</v>
       </c>
       <c r="C74">
-        <v>0.00748388582172086</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01364039333233523</v>
+      </c>
+      <c r="D74">
+        <v>0.05171623308773719</v>
+      </c>
+      <c r="E74">
+        <v>0.09387514838936263</v>
+      </c>
+      <c r="F74">
+        <v>0.05819473220132602</v>
+      </c>
+      <c r="G74">
+        <v>0.02414548912034256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1212969893792844</v>
+        <v>-0.1135399759723232</v>
       </c>
       <c r="C75">
-        <v>0.02654136476642853</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02727264350233801</v>
+      </c>
+      <c r="D75">
+        <v>0.006168754255063427</v>
+      </c>
+      <c r="E75">
+        <v>0.09064139727410987</v>
+      </c>
+      <c r="F75">
+        <v>0.1532234605360745</v>
+      </c>
+      <c r="G75">
+        <v>0.07376580041852229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07805155516473866</v>
+        <v>-0.08695590974111669</v>
       </c>
       <c r="C77">
-        <v>0.123616897284119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1276646526359263</v>
+      </c>
+      <c r="D77">
+        <v>0.03807354584776892</v>
+      </c>
+      <c r="E77">
+        <v>-0.09459393441067419</v>
+      </c>
+      <c r="F77">
+        <v>-0.08977531343841952</v>
+      </c>
+      <c r="G77">
+        <v>0.08263839417937686</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07508424109740995</v>
+        <v>-0.08225299147539585</v>
       </c>
       <c r="C78">
-        <v>0.129061997741378</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1306932349984997</v>
+      </c>
+      <c r="D78">
+        <v>0.02514729279889814</v>
+      </c>
+      <c r="E78">
+        <v>-0.09879807993852194</v>
+      </c>
+      <c r="F78">
+        <v>0.04809176846235017</v>
+      </c>
+      <c r="G78">
+        <v>0.04059466723586114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.168710357967796</v>
+        <v>-0.1640433996627052</v>
       </c>
       <c r="C79">
-        <v>0.02101850287079631</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02053508692158109</v>
+      </c>
+      <c r="D79">
+        <v>0.0002032480417020469</v>
+      </c>
+      <c r="E79">
+        <v>0.07064349492998281</v>
+      </c>
+      <c r="F79">
+        <v>0.1261324431215552</v>
+      </c>
+      <c r="G79">
+        <v>0.07630578317159462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07698855278951904</v>
+        <v>-0.07333651941124014</v>
       </c>
       <c r="C80">
-        <v>0.08521906862829065</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.08090385213820789</v>
+      </c>
+      <c r="D80">
+        <v>0.005133288477974207</v>
+      </c>
+      <c r="E80">
+        <v>-0.05434558720959351</v>
+      </c>
+      <c r="F80">
+        <v>-0.03848559126690957</v>
+      </c>
+      <c r="G80">
+        <v>-0.1155439408924272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.112058877726406</v>
+        <v>-0.1053314990762108</v>
       </c>
       <c r="C81">
-        <v>-0.01055474424752095</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.01020254724209027</v>
+      </c>
+      <c r="D81">
+        <v>-0.01888544673396314</v>
+      </c>
+      <c r="E81">
+        <v>0.1080220661436918</v>
+      </c>
+      <c r="F81">
+        <v>0.1525699015142616</v>
+      </c>
+      <c r="G81">
+        <v>0.01676050161567571</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1631622411725202</v>
+        <v>-0.1584628742813343</v>
       </c>
       <c r="C82">
-        <v>-0.01686102469029211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.0145426032608512</v>
+      </c>
+      <c r="D82">
+        <v>0.0838068524318262</v>
+      </c>
+      <c r="E82">
+        <v>0.1462663658002456</v>
+      </c>
+      <c r="F82">
+        <v>0.1052359320962406</v>
+      </c>
+      <c r="G82">
+        <v>0.07485667735570453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05240713725821229</v>
+        <v>-0.04891373306450545</v>
       </c>
       <c r="C83">
-        <v>0.06498386711980873</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05982210245466143</v>
+      </c>
+      <c r="D83">
+        <v>-0.03335715015687438</v>
+      </c>
+      <c r="E83">
+        <v>-0.005190066443118908</v>
+      </c>
+      <c r="F83">
+        <v>-0.02067263742034394</v>
+      </c>
+      <c r="G83">
+        <v>-0.002342115300769328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04759585300009939</v>
+        <v>-0.04671841065607765</v>
       </c>
       <c r="C84">
-        <v>0.07054239799217833</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.06939468952126727</v>
+      </c>
+      <c r="D84">
+        <v>-0.01649647682387825</v>
+      </c>
+      <c r="E84">
+        <v>0.01091408946082722</v>
+      </c>
+      <c r="F84">
+        <v>0.01418684325606532</v>
+      </c>
+      <c r="G84">
+        <v>0.03919750450968142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1400529121045586</v>
+        <v>-0.1348361487878376</v>
       </c>
       <c r="C85">
-        <v>0.008572601409062743</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.009320983131055264</v>
+      </c>
+      <c r="D85">
+        <v>0.06826078685214569</v>
+      </c>
+      <c r="E85">
+        <v>0.06585874558213867</v>
+      </c>
+      <c r="F85">
+        <v>0.1323936886827999</v>
+      </c>
+      <c r="G85">
+        <v>0.08010937851216147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08039666836246093</v>
+        <v>-0.08144519360404798</v>
       </c>
       <c r="C86">
-        <v>0.1527085986532567</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1600153981973733</v>
+      </c>
+      <c r="D86">
+        <v>-0.5363068737153143</v>
+      </c>
+      <c r="E86">
+        <v>-0.4746560651790053</v>
+      </c>
+      <c r="F86">
+        <v>0.3759933760167862</v>
+      </c>
+      <c r="G86">
+        <v>-0.3405649878400626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.09045034659971952</v>
+        <v>-0.08576764950030649</v>
       </c>
       <c r="C87">
-        <v>0.1078742330806095</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.104337587830931</v>
+      </c>
+      <c r="D87">
+        <v>0.1303022165471857</v>
+      </c>
+      <c r="E87">
+        <v>-0.0950135780917561</v>
+      </c>
+      <c r="F87">
+        <v>-0.21282555591655</v>
+      </c>
+      <c r="G87">
+        <v>-0.03789534376003127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05936107766567355</v>
+        <v>-0.05857230935208119</v>
       </c>
       <c r="C88">
-        <v>0.06350757955105316</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06427218212996449</v>
+      </c>
+      <c r="D88">
+        <v>0.002595141099187386</v>
+      </c>
+      <c r="E88">
+        <v>0.03133309082732194</v>
+      </c>
+      <c r="F88">
+        <v>0.02373800446461107</v>
+      </c>
+      <c r="G88">
+        <v>0.02753293544168613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1544528019731411</v>
+        <v>-0.15321547344205</v>
       </c>
       <c r="C89">
-        <v>-0.1968652045900575</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2038881311749501</v>
+      </c>
+      <c r="D89">
+        <v>0.02321883445881743</v>
+      </c>
+      <c r="E89">
+        <v>-0.103521449038219</v>
+      </c>
+      <c r="F89">
+        <v>-0.05964475726120965</v>
+      </c>
+      <c r="G89">
+        <v>-0.00940329380464089</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1875682721581659</v>
+        <v>-0.1898477751915746</v>
       </c>
       <c r="C90">
-        <v>-0.2308493983457633</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2319037152642115</v>
+      </c>
+      <c r="D90">
+        <v>0.02402738082447501</v>
+      </c>
+      <c r="E90">
+        <v>-0.1840383728501706</v>
+      </c>
+      <c r="F90">
+        <v>-0.1198943295531164</v>
+      </c>
+      <c r="G90">
+        <v>-0.008721753200732091</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.126202805644941</v>
+        <v>-0.1199330932493994</v>
       </c>
       <c r="C91">
-        <v>-0.02058499408399636</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02004498849051259</v>
+      </c>
+      <c r="D91">
+        <v>-0.03845974205125277</v>
+      </c>
+      <c r="E91">
+        <v>0.1296598870739808</v>
+      </c>
+      <c r="F91">
+        <v>0.175745102006451</v>
+      </c>
+      <c r="G91">
+        <v>0.01113544686688481</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1774358898771983</v>
+        <v>-0.1782691287903122</v>
       </c>
       <c r="C92">
-        <v>-0.2568021398299795</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2674596020762783</v>
+      </c>
+      <c r="D92">
+        <v>0.004584027397973298</v>
+      </c>
+      <c r="E92">
+        <v>-0.2112356141681788</v>
+      </c>
+      <c r="F92">
+        <v>-0.05962083071537851</v>
+      </c>
+      <c r="G92">
+        <v>0.02174527979628003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1799254649475251</v>
+        <v>-0.1864318381338194</v>
       </c>
       <c r="C93">
-        <v>-0.220597136668234</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2218121255653715</v>
+      </c>
+      <c r="D93">
+        <v>-0.01249071396226996</v>
+      </c>
+      <c r="E93">
+        <v>-0.1145354703807872</v>
+      </c>
+      <c r="F93">
+        <v>-0.03601170489398259</v>
+      </c>
+      <c r="G93">
+        <v>0.04241289520287682</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1191263155148477</v>
+        <v>-0.1133744914642996</v>
       </c>
       <c r="C94">
-        <v>0.03305177813871129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03323218082117883</v>
+      </c>
+      <c r="D94">
+        <v>0.003579972639963494</v>
+      </c>
+      <c r="E94">
+        <v>0.08140123650504877</v>
+      </c>
+      <c r="F94">
+        <v>0.1447722931279591</v>
+      </c>
+      <c r="G94">
+        <v>0.06220634631239089</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1192480005537805</v>
+        <v>-0.1183011693460665</v>
       </c>
       <c r="C95">
-        <v>0.1084788563730427</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1187856874501644</v>
+      </c>
+      <c r="D95">
+        <v>-0.001746960465023201</v>
+      </c>
+      <c r="E95">
+        <v>-0.08546840892920651</v>
+      </c>
+      <c r="F95">
+        <v>-0.007618848655151163</v>
+      </c>
+      <c r="G95">
+        <v>-0.003583755879709858</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1167139600753663</v>
+        <v>-0.1148450770518036</v>
       </c>
       <c r="C96">
-        <v>0.1211917251050481</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1244047519493827</v>
+      </c>
+      <c r="D96">
+        <v>-0.04045838347939001</v>
+      </c>
+      <c r="E96">
+        <v>0.02075062389516469</v>
+      </c>
+      <c r="F96">
+        <v>-0.06333965205283244</v>
+      </c>
+      <c r="G96">
+        <v>0.1215835612831635</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.2036955233560396</v>
+        <v>-0.2076450975326043</v>
       </c>
       <c r="C97">
-        <v>0.002446692468054758</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.00482104033619368</v>
+      </c>
+      <c r="D97">
+        <v>-0.03984800214135986</v>
+      </c>
+      <c r="E97">
+        <v>0.4230858004504358</v>
+      </c>
+      <c r="F97">
+        <v>-0.1879574604373618</v>
+      </c>
+      <c r="G97">
+        <v>-0.7728110990806921</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1958553444049317</v>
+        <v>-0.2036346446602907</v>
       </c>
       <c r="C98">
-        <v>0.02365512765549643</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.02453241004232099</v>
+      </c>
+      <c r="D98">
+        <v>-0.07286299183024306</v>
+      </c>
+      <c r="E98">
+        <v>0.06184515049338472</v>
+      </c>
+      <c r="F98">
+        <v>-0.1914220018993527</v>
+      </c>
+      <c r="G98">
+        <v>-0.02284291007153428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05004730250905137</v>
+        <v>-0.05012106930285123</v>
       </c>
       <c r="C99">
-        <v>0.05977268157935068</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05967368776283164</v>
+      </c>
+      <c r="D99">
+        <v>0.01883315393929581</v>
+      </c>
+      <c r="E99">
+        <v>-0.02761002667789571</v>
+      </c>
+      <c r="F99">
+        <v>-0.02198588613676936</v>
+      </c>
+      <c r="G99">
+        <v>-0.0004837447364599145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1063526371067441</v>
+        <v>-0.1027898993032499</v>
       </c>
       <c r="C100">
-        <v>0.2979917849118756</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2857957493315205</v>
+      </c>
+      <c r="D100">
+        <v>0.01885630875598794</v>
+      </c>
+      <c r="E100">
+        <v>-0.03930051008262354</v>
+      </c>
+      <c r="F100">
+        <v>-0.4484365208651353</v>
+      </c>
+      <c r="G100">
+        <v>0.06555839920446827</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0252920875211795</v>
+        <v>-0.02707070404010831</v>
       </c>
       <c r="C101">
-        <v>0.05424884828756883</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05399346494363693</v>
+      </c>
+      <c r="D101">
+        <v>0.006173106108231283</v>
+      </c>
+      <c r="E101">
+        <v>-0.06893282092257261</v>
+      </c>
+      <c r="F101">
+        <v>0.007791131639667297</v>
+      </c>
+      <c r="G101">
+        <v>-0.005635527881702759</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
